--- a/participants/participant_03/participant_03_task_orders.xlsx
+++ b/participants/participant_03/participant_03_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1649873012235224" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1649873014506058" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730145074277" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1649873014583235" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1649873014662587" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911196228027" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911231411045" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911231430614" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911231908534" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911232535055" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1649873012198227.csv</t>
+          <t>go_stims-16502911195881896.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730122182243.csv</t>
+          <t>GNG_stims-16502911196075466.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730122192233.csv</t>
+          <t>go_stims-16502911196085455.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730122342238.csv</t>
+          <t>GNG_stims-16502911196218042.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498730135749815.csv</t>
+          <t>ZB-match_8-16502911198233044.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1649873012810421.csv</t>
+          <t>OB-16502911215404847.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498730125019898.csv</t>
+          <t>TB-16502911230044842.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16498730137349374.csv</t>
+          <t>TB-16502911231222773.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16498730144222972.csv</t>
+          <t>OB-1650291121431339.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16498730144839835.csv</t>
+          <t>OB-16502911211394715.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_7-1649873012415105.csv</t>
+          <t>TB-16502911216570458.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16498730140547488.csv</t>
+          <t>ZB-match_8-16502911196643379.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_8-1649873012314284.csv</t>
+          <t>ZB-match_7-16502911200337718.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730145360672.csv</t>
+          <t>MM_stims-1650291123157324.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730145114214.csv</t>
+          <t>ZM_stims-16502911231441078.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730145550427.csv</t>
+          <t>MM_stims-1650291123174759.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730145380633.csv</t>
+          <t>ZM_stims-1650291123157324.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1649873014583235.csv</t>
+          <t>MM_stims-16502911231898556.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730145569649.csv</t>
+          <t>ZM_stims-16502911231757584.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873014646622.csv</t>
+          <t>vSAT_stims-16502911232377357.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-164987301461478.csv</t>
+          <t>SAT_stims-16502911232059624.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730145883052.csv</t>
+          <t>SAT_stims-16502911231929424.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873014630059.csv</t>
+          <t>vSAT_stims-16502911232223759.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_03/participant_03_task_orders.xlsx
+++ b/participants/participant_03/participant_03_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911196228027" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911231411045" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911231430614" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911231908534" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911232535055" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504777765843773" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504777807143772" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650477780715377" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-165047778076239" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504777808254104" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911195881896.csv</t>
+          <t>go_stims-1650477776556376.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911196075466.csv</t>
+          <t>GNG_stims-16504777765674121.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911196085455.csv</t>
+          <t>go_stims-16504777765693796.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911196218042.csv</t>
+          <t>GNG_stims-16504777765834143.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_8-16502911198233044.csv</t>
+          <t>TB-16504777800294063.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502911215404847.csv</t>
+          <t>ZB-match_4-1650477777278379.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502911230044842.csv</t>
+          <t>TB-165047777949141.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502911231222773.csv</t>
+          <t>OB-16504777775373774.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1650291121431339.csv</t>
+          <t>TB-16504777806953762.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16502911211394715.csv</t>
+          <t>ZB-match_9-16504777767244074.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502911216570458.csv</t>
+          <t>OB-16504777793524096.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_8-16502911196643379.csv</t>
+          <t>ZB-match_5-165047777716241.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502911200337718.csv</t>
+          <t>OB-16504777785573783.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650291123157324.csv</t>
+          <t>MM_stims-16504777807293797.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911231441078.csv</t>
+          <t>ZM_stims-16504777807173786.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291123174759.csv</t>
+          <t>MM_stims-16504777807453783.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291123157324.csv</t>
+          <t>ZM_stims-16504777807293797.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911231898556.csv</t>
+          <t>MM_stims-16504777807613792.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911231757584.csv</t>
+          <t>ZM_stims-16504777807453783.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911232377357.csv</t>
+          <t>SAT_stims-16504777807773817.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911232059624.csv</t>
+          <t>vSAT_stims-16504777807933793.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911231929424.csv</t>
+          <t>vSAT_stims-16504777808094099.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911232223759.csv</t>
+          <t>SAT_stims-16504777807653792.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_03/participant_03_task_orders.xlsx
+++ b/participants/participant_03/participant_03_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504777765843773" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504777807143772" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650477780715377" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-165047778076239" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504777808254104" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509960664747276" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509960690186963" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509960690186963" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509960690747051" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650996069146698" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650477776556376.csv</t>
+          <t>go_stims-16509960664426973.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777765674121.csv</t>
+          <t>GNG_stims-16509960664586995.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504777765693796.csv</t>
+          <t>go_stims-16509960664586995.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777765834143.csv</t>
+          <t>GNG_stims-16509960664747276.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16504777800294063.csv</t>
+          <t>ZB-match_9-16509960665946972.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_4-1650477777278379.csv</t>
+          <t>OB-16509960677227042.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-165047777949141.csv</t>
+          <t>TB-16509960689947357.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504777775373774.csv</t>
+          <t>TB-1650996068770696.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504777806953762.csv</t>
+          <t>OB-16509960680267055.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_9-16504777767244074.csv</t>
+          <t>OB-16509960670587342.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16504777793524096.csv</t>
+          <t>ZB-match_3-16509960666427047.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_5-165047777716241.csv</t>
+          <t>ZB-match_5-16509960665227375.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504777785573783.csv</t>
+          <t>TB-1650996068818698.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504777807293797.csv</t>
+          <t>MM_stims-16509960690427377.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777807173786.csv</t>
+          <t>ZM_stims-16509960690186963.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504777807453783.csv</t>
+          <t>MM_stims-16509960690587347.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777807293797.csv</t>
+          <t>ZM_stims-16509960690427377.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504777807613792.csv</t>
+          <t>MM_stims-16509960690747051.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777807453783.csv</t>
+          <t>ZM_stims-16509960690587347.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777807773817.csv</t>
+          <t>vSAT_stims-16509960691147354.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777807933793.csv</t>
+          <t>SAT_stims-16509960690987008.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777808094099.csv</t>
+          <t>vSAT_stims-16509960691307352.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777807653792.csv</t>
+          <t>SAT_stims-16509960690747051.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_03/participant_03_task_orders.xlsx
+++ b/participants/participant_03/participant_03_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509960664747276" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509960690186963" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509960690186963" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509960690747051" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650996069146698" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511686508372188" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168652574372" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511686525763676" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168652651368" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511686527304" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509960664426973.csv</t>
+          <t>go_stims-16511686508072188.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960664586995.csv</t>
+          <t>GNG_stims-1651168650820251.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960664586995.csv</t>
+          <t>go_stims-16511686508212187.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960664747276.csv</t>
+          <t>GNG_stims-1651168650836221.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_9-16509960665946972.csv</t>
+          <t>TB-16511686525633662.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16509960677227042.csv</t>
+          <t>TB-16511686521632276.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509960689947357.csv</t>
+          <t>ZB-match_6-16511686512232296.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1650996068770696.csv</t>
+          <t>OB-1651168652038221.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16509960680267055.csv</t>
+          <t>ZB-match_1-16511686514532216.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16509960670587342.csv</t>
+          <t>OB-1651168652077227.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509960666427047.csv</t>
+          <t>TB-1651168652461368.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509960665227375.csv</t>
+          <t>ZB-match_7-16511686514122224.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1650996068818698.csv</t>
+          <t>OB-16511686518462212.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509960690427377.csv</t>
+          <t>MM_stims-1651168652604372.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960690186963.csv</t>
+          <t>ZM_stims-1651168652578365.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509960690587347.csv</t>
+          <t>MM_stims-1651168652635367.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960690427377.csv</t>
+          <t>ZM_stims-16511686526053655.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509960690747051.csv</t>
+          <t>MM_stims-1651168652650399.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960690587347.csv</t>
+          <t>ZM_stims-16511686526363666.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960691147354.csv</t>
+          <t>vSAT_stims-16511686527153726.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960690987008.csv</t>
+          <t>vSAT_stims-16511686526984007.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960691307352.csv</t>
+          <t>SAT_stims-16511686526563716.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960690747051.csv</t>
+          <t>SAT_stims-16511686526823661.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_03/participant_03_task_orders.xlsx
+++ b/participants/participant_03/participant_03_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511686508372188" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168652574372" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511686525763676" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168652651368" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511686527304" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512554836673157" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512554860199082" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512554860209057" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512554860839047" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512554861469405" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511686508072188.csv</t>
+          <t>go_stims-16512554836369507.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168650820251.csv</t>
+          <t>GNG_stims-16512554836505563.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686508212187.csv</t>
+          <t>go_stims-1651255483651596.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168650836221.csv</t>
+          <t>GNG_stims-16512554836663523.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511686525633662.csv</t>
+          <t>OB-16512554849356887.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511686521632276.csv</t>
+          <t>TB-16512554853382897.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-16511686512232296.csv</t>
+          <t>ZB-match_6-1651255483817136.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1651168652038221.csv</t>
+          <t>ZB-match_0-16512554838441272.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511686514532216.csv</t>
+          <t>TB-16512554851928227.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1651168652077227.csv</t>
+          <t>ZB-match_2-16512554844141412.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1651168652461368.csv</t>
+          <t>OB-16512554848904274.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511686514122224.csv</t>
+          <t>OB-16512554847173853.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16511686518462212.csv</t>
+          <t>TB-1651255485995942.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1651168652604372.csv</t>
+          <t>MM_stims-16512554860359385.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168652578365.csv</t>
+          <t>ZM_stims-16512554860229044.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651168652635367.csv</t>
+          <t>MM_stims-16512554860669394.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686526053655.csv</t>
+          <t>ZM_stims-16512554860369048.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168652650399.csv</t>
+          <t>MM_stims-1651255486082906.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686526363666.csv</t>
+          <t>ZM_stims-16512554860679066.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686527153726.csv</t>
+          <t>vSAT_stims-16512554861309469.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686526984007.csv</t>
+          <t>SAT_stims-16512554860989392.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686526563716.csv</t>
+          <t>vSAT_stims-16512554861159108.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686526823661.csv</t>
+          <t>SAT_stims-16512554860869076.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_03/participant_03_task_orders.xlsx
+++ b/participants/participant_03/participant_03_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512554836673157" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512554860199082" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512554860209057" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512554860839047" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512554861469405" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515889152153957" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_TO-1651588915248668" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16515889152516692" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16515889153106687" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NB_TO-16515889165133376" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512554836369507.csv</t>
+          <t>SAT_stims-1651588915167187.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512554836505563.csv</t>
+          <t>vSAT_stims-16515889151969259.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255483651596.csv</t>
+          <t>SAT_stims-16515889151442163.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512554836663523.csv</t>
+          <t>vSAT_stims-16515889151814542.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512554849356887.csv</t>
+          <t>go_stims-16515889152204773.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512554853382897.csv</t>
+          <t>GNG_stims-16515889152306733.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-1651255483817136.csv</t>
+          <t>go_stims-1651588915232668.csv</t>
         </is>
       </c>
     </row>
@@ -546,57 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16512554838441272.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TB-16512554851928227.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZB-match_2-16512554844141412.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>OB-16512554848904274.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>OB-16512554847173853.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TB-1651255485995942.csv</t>
+          <t>GNG_stims-1651588915246672.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +592,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512554860359385.csv</t>
+          <t>MM_stims-16515889152766664.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512554860229044.csv</t>
+          <t>ZM_stims-16515889152546654.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512554860669394.csv</t>
+          <t>MM_stims-16515889152926674.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512554860369048.csv</t>
+          <t>ZM_stims-16515889152776656.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651255486082906.csv</t>
+          <t>MM_stims-16515889153096704.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512554860679066.csv</t>
+          <t>ZM_stims-16515889152946746.csv</t>
         </is>
       </c>
     </row>
@@ -743,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +714,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512554861309469.csv</t>
+          <t>ZB-match_5-16515889155536628.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +724,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512554860989392.csv</t>
+          <t>OB-16515889156744006.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +734,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512554861159108.csv</t>
+          <t>TB-1651588916204964.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +744,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512554860869076.csv</t>
+          <t>TB-1651588916485304.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ZB-match_3-16515889153676646.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OB-16515889157094023.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ZB-match_3-1651588915640401.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TB-16515889164402757.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OB-16515889161336493.csv</t>
         </is>
       </c>
     </row>
